--- a/Definition-2024-01-06.xlsx
+++ b/Definition-2024-01-06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataly/Projects/GeoGenius/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8F935-18F6-B34A-8EB3-030232566B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2015DD74-7864-C841-A6FD-D7A5033A0D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -540,12 +540,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>1,2,7,5</t>
-  </si>
-  <si>
-    <t>9,8,6</t>
   </si>
 </sst>
 </file>
@@ -912,7 +906,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14:J41"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1351,9 +1345,6 @@
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
-        <v>159</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -1383,9 +1374,6 @@
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15">
-        <v>2.13</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -1415,9 +1403,6 @@
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" t="s">
-        <v>160</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -1447,9 +1432,6 @@
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -1479,9 +1461,6 @@
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18">
-        <v>9.16</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -1511,9 +1490,6 @@
       <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="F19">
-        <v>9.16</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -1542,9 +1518,6 @@
       </c>
       <c r="E20" t="s">
         <v>13</v>
-      </c>
-      <c r="F20">
-        <v>9.16</v>
       </c>
       <c r="G20">
         <v>0</v>
